--- a/math/5.gioi_han.xlsx
+++ b/math/5.gioi_han.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="gioi_han_day_so" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,15 +15,292 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t>Định nghĩa</t>
+  </si>
+  <si>
+    <t>Giới hạn của dãy số cho ta biết được</t>
+  </si>
+  <si>
+    <t>Dãy số có gới hạn 0</t>
+  </si>
+  <si>
+    <t>Dãy số Un có gới hạn 0 nếu với mỗi số dương nhỏ tùy ý cho trước, mọi số hạn của dãy số, kể từ số hạng nào đó trở đi, đều có giá trị tuyệt đối nhỏ hơn số dương đó</t>
+  </si>
+  <si>
+    <t>Một số dãy số có gới hạn 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Khi n -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì dãy số Un có giá trị tiến tới đâu </t>
+    </r>
+  </si>
+  <si>
+    <t>Dãy số có giới hạn hữu hạn</t>
+  </si>
+  <si>
+    <t>Dãy số có gới hạn là số thực L nếu Lim(Un - L) = 0</t>
+  </si>
+  <si>
+    <t>Khi đó ta viết</t>
+  </si>
+  <si>
+    <t>Lim(un) = L</t>
+  </si>
+  <si>
+    <t>Dãy số có gới hạn là một số thực goi là dãy số có giới hạn hữu hạn</t>
+  </si>
+  <si>
+    <t>Giới hạn vô cực</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dãy số Un có giới hạn + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞ nếu với mỗi số dương tùy ý cho trước, mọi số hạn của dãy số, kể từ số hạng nào đó trở đi, đều lớn hơn số dương đó</t>
+    </r>
+  </si>
+  <si>
+    <t>Kí hiệu</t>
+  </si>
+  <si>
+    <r>
+      <t>limUn = +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gới hạn +</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giới hạn -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dãy số Un có gới hạn -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞ nếu với mỗi số âm tùy ý cho trước, mọi số hạn của dãy số, kể từ số hạn nào đó trở đi, đều nhỏ hơn số âm đó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>limUn =-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <r>
+      <t>lim(2n -3) = +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lim(-2n -3) = -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+  </si>
+  <si>
+    <t>Các quy tắt tìm giới hạn vô cực</t>
+  </si>
+  <si>
+    <t>Quy tắt 1</t>
+  </si>
+  <si>
+    <t>TÌm lim(Un x Vn)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu limUn = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±∞ và limVn = ±∞</t>
+    </r>
+  </si>
+  <si>
+    <t>Quy tắt 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu limUn = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±∞ và limVn = ±L</t>
+    </r>
+  </si>
+  <si>
+    <t>Quy tắt 3</t>
+  </si>
+  <si>
+    <t>Nếu limUn = L và != 0 và limVn = 0</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,15 +323,1050 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53609</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1280160"/>
+          <a:ext cx="3101609" cy="419136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12223</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1505617" cy="423834"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="30480" y="2206783"/>
+              <a:ext cx="1505617" cy="423834"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:limLow>
+                          <m:limLowPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:limLowPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" i="0">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>lim</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:lim>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t> → ∞</m:t>
+                            </m:r>
+                          </m:lim>
+                        </m:limLow>
+                      </m:fName>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>=0</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="30480" y="2206783"/>
+              <a:ext cx="1505617" cy="423834"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>lim_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑛 → ∞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑛=0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12223</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1116997" cy="432811"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="45720" y="2938303"/>
+              <a:ext cx="1116997" cy="432811"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:limLow>
+                          <m:limLowPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:limLowPr>
+                          <m:e>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="en-US" sz="1100" i="0">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>lim</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:lim>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t> → ∞</m:t>
+                            </m:r>
+                          </m:lim>
+                        </m:limLow>
+                      </m:fName>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>√</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=0</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="45720" y="2938303"/>
+              <a:ext cx="1116997" cy="432811"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>lim_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑛 → ∞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145252</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="5273040"/>
+          <a:ext cx="5448772" cy="2362405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457557</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>15360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12077700"/>
+          <a:ext cx="4115157" cy="1379340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434693</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>61087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="14226540"/>
+          <a:ext cx="4069433" cy="1470787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>149383</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1391317" cy="336118"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="45720" y="16151383"/>
+              <a:ext cx="1391317" cy="336118"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0"/>
+                <a:t>Tìm</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:func>
+                    <m:funcPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:funcPr>
+                    <m:fName>
+                      <m:limLow>
+                        <m:limLowPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:limLowPr>
+                        <m:e>
+                          <m:r>
+                            <m:rPr>
+                              <m:sty m:val="p"/>
+                            </m:rPr>
+                            <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>lim</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:lim/>
+                      </m:limLow>
+                    </m:fName>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <m:rPr>
+                              <m:sty m:val="p"/>
+                            </m:rPr>
+                            <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>Un</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <m:rPr>
+                              <m:sty m:val="p"/>
+                            </m:rPr>
+                            <a:rPr lang="vi-VN" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>Vn</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:func>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="45720" y="16151383"/>
+              <a:ext cx="1391317" cy="336118"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0"/>
+                <a:t>Tìm</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="vi-VN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>   lim_⁡〖Un/Vn〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91808</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>30630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="16863060"/>
+          <a:ext cx="4252328" cy="1729890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587062</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>99238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="19164300"/>
+          <a:ext cx="3718882" cy="2057578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>579590</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>129782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5516880" y="19743420"/>
+          <a:ext cx="5425910" cy="2789162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388815</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>167727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5455920" y="18463260"/>
+          <a:ext cx="2248095" cy="998307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,36 +1655,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
